--- a/Qi/Project/GS-1/code/output/Q2-1亿各个公司可借的钱.xlsx
+++ b/Qi/Project/GS-1/code/output/Q2-1亿各个公司可借的钱.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>901761.187381948</v>
+        <v>868936.1427096954</v>
       </c>
       <c r="D3" t="n">
         <v>0.08636105541139842</v>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>907333.240571518</v>
+        <v>876370.0149704599</v>
       </c>
       <c r="D4" t="n">
         <v>0.08656745441257954</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>833304.8713937567</v>
+        <v>777606.1623262841</v>
       </c>
       <c r="D5" t="n">
         <v>0.1117670783400536</v>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D6" t="n">
         <v>0.09509861730039121</v>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D7" t="n">
         <v>0.08635823071002961</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D8" t="n">
         <v>0.08635823071002961</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D9" t="n">
         <v>0.08635823071002961</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D10" t="n">
         <v>0.08635823071002961</v>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D11" t="n">
         <v>0.08635823071002961</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D12" t="n">
         <v>0.09509861730039121</v>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D13" t="n">
         <v>0.08635823071002961</v>
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D15" t="n">
         <v>0.08635823071002961</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>878029.0863098851</v>
+        <v>837274.3114516048</v>
       </c>
       <c r="D16" t="n">
         <v>0.09497997239232064</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D18" t="n">
         <v>0.09509861730039121</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>909530.1144278996</v>
+        <v>879300.941698138</v>
       </c>
       <c r="D19" t="n">
         <v>0.08664883062243463</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D20" t="n">
         <v>0.08635823071002961</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D21" t="n">
         <v>0.08635823071002961</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D22" t="n">
         <v>0.09509861730039121</v>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>935835.1838710547</v>
+        <v>914395.4606120983</v>
       </c>
       <c r="D23" t="n">
         <v>0.07788730517029764</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>992769.3914068484</v>
+        <v>990353.3906047972</v>
       </c>
       <c r="D24" t="n">
         <v>0.0598214433901012</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D25" t="n">
         <v>0.08635823071002961</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D26" t="n">
         <v>0.08635823071002961</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D28" t="n">
         <v>0.08635823071002961</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D29" t="n">
         <v>0.09509861730039121</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D30" t="n">
         <v>0.09509861730039121</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D32" t="n">
         <v>0.07835825815796854</v>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>911980.3518850124</v>
+        <v>882569.8897223263</v>
       </c>
       <c r="D33" t="n">
         <v>0.08673959188163281</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>882436.6553365352</v>
+        <v>843154.604408239</v>
       </c>
       <c r="D34" t="n">
         <v>0.0951613772660494</v>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>990841.9607609684</v>
+        <v>987781.9375469234</v>
       </c>
       <c r="D35" t="n">
         <v>0.05977384636178613</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D36" t="n">
         <v>0.08635823071002961</v>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D37" t="n">
         <v>0.08635823071002961</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D38" t="n">
         <v>0.08635823071002961</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>912221.9488138031</v>
+        <v>882892.2126876896</v>
       </c>
       <c r="D40" t="n">
         <v>0.08674854107201101</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D41" t="n">
         <v>0.08635823071002961</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D42" t="n">
         <v>0.08635823071002961</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D43" t="n">
         <v>0.08635823071002961</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>882436.6553365352</v>
+        <v>843154.604408239</v>
       </c>
       <c r="D44" t="n">
         <v>0.0951613772660494</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D45" t="n">
         <v>0.07835825815796854</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>744587.3510172812</v>
+        <v>659244.9961039289</v>
       </c>
       <c r="D46" t="n">
         <v>0.1252829669415951</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D47" t="n">
         <v>0.08635823071002961</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D48" t="n">
         <v>0.08635823071002961</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D49" t="n">
         <v>0.08635823071002961</v>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D50" t="n">
         <v>0.08635823071002961</v>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>899148.1353903272</v>
+        <v>865449.9780849918</v>
       </c>
       <c r="D52" t="n">
         <v>0.09584918133914472</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D54" t="n">
         <v>0.09509861730039121</v>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>992361.3288810158</v>
+        <v>989808.9800278983</v>
       </c>
       <c r="D55" t="n">
         <v>0.05981136647053063</v>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D56" t="n">
         <v>0.07835825815796854</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D57" t="n">
         <v>0.08635823071002961</v>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>901761.187381948</v>
+        <v>868936.1427096954</v>
       </c>
       <c r="D58" t="n">
         <v>0.08636105541139842</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D59" t="n">
         <v>0.07835825815796854</v>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>917200.8983785837</v>
+        <v>889534.8045291763</v>
       </c>
       <c r="D60" t="n">
         <v>0.08693297043442727</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D61" t="n">
         <v>0.08635823071002961</v>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>909600.4881773882</v>
+        <v>879394.8297940356</v>
       </c>
       <c r="D62" t="n">
         <v>0.08665143739432098</v>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>882436.6553365352</v>
+        <v>843154.604408239</v>
       </c>
       <c r="D64" t="n">
         <v>0.0951613772660494</v>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>946131.8364344884</v>
+        <v>928132.5871731511</v>
       </c>
       <c r="D65" t="n">
         <v>0.07822633340954782</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>966833.2026033759</v>
+        <v>955751.0083344716</v>
       </c>
       <c r="D66" t="n">
         <v>0.06904445442371071</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>929844.047083405</v>
+        <v>906402.474174079</v>
       </c>
       <c r="D67" t="n">
         <v>0.08740129569545389</v>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>859541.2008445656</v>
+        <v>812608.9727972483</v>
       </c>
       <c r="D70" t="n">
         <v>0.1036409613490105</v>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>878029.0863098851</v>
+        <v>837274.3114516048</v>
       </c>
       <c r="D71" t="n">
         <v>0.09497997239232064</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>991563.9965621318</v>
+        <v>988745.230920288</v>
       </c>
       <c r="D72" t="n">
         <v>0.05979167670942843</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D73" t="n">
         <v>0.08635823071002961</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D74" t="n">
         <v>0.08635823071002961</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D75" t="n">
         <v>0.08635823071002961</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>945883.9307592803</v>
+        <v>927801.8474871651</v>
       </c>
       <c r="D76" t="n">
         <v>0.07821817085146905</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>919308.5718103725</v>
+        <v>892346.7258311219</v>
       </c>
       <c r="D78" t="n">
         <v>0.08701104249805212</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>992566.9503417602</v>
+        <v>990083.306855235</v>
       </c>
       <c r="D79" t="n">
         <v>0.05981644419953228</v>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D80" t="n">
         <v>0.09509861730039121</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>876159.8418567494</v>
+        <v>834780.4866412524</v>
       </c>
       <c r="D81" t="n">
         <v>0.09490303881466389</v>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D82" t="n">
         <v>0.08635823071002961</v>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>882539.5775108675</v>
+        <v>843291.9165032167</v>
       </c>
       <c r="D83" t="n">
         <v>0.09516561329364777</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D84" t="n">
         <v>0.08635823071002961</v>
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D85" t="n">
         <v>0.08635823071002961</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D86" t="n">
         <v>0.07835825815796854</v>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D87" t="n">
         <v>0.08635823071002961</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D88" t="n">
         <v>0.09509861730039121</v>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>882539.5775108675</v>
+        <v>843291.9165032167</v>
       </c>
       <c r="D89" t="n">
         <v>0.09516561329364777</v>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>901761.187381948</v>
+        <v>868936.1427096954</v>
       </c>
       <c r="D91" t="n">
         <v>0.08636105541139842</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D92" t="n">
         <v>0.08635823071002961</v>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D94" t="n">
         <v>0.08635823071002961</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>946131.8364344884</v>
+        <v>928132.5871731511</v>
       </c>
       <c r="D95" t="n">
         <v>0.07822633340954782</v>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D98" t="n">
         <v>0.08635823071002961</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>886693.9096547922</v>
+        <v>848834.3572222915</v>
       </c>
       <c r="D99" t="n">
         <v>0.09533659555017948</v>
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>904780.7597865309</v>
+        <v>872964.6605242447</v>
       </c>
       <c r="D100" t="n">
         <v>0.08647290587425233</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>949841.3521739285</v>
+        <v>933081.5826723167</v>
       </c>
       <c r="D101" t="n">
         <v>0.07834847316145899</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D102" t="n">
         <v>0.07835825815796854</v>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D103" t="n">
         <v>0.08635823071002961</v>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>950138.5330507077</v>
+        <v>933478.0621388899</v>
       </c>
       <c r="D104" t="n">
         <v>0.07835825815796854</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>996862.6729088281</v>
+        <v>995814.3815138622</v>
       </c>
       <c r="D105" t="n">
         <v>0.05992252512602136</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>909530.1144278996</v>
+        <v>879300.941698138</v>
       </c>
       <c r="D106" t="n">
         <v>0.08664883062243463</v>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>901761.187381948</v>
+        <v>868936.1427096954</v>
       </c>
       <c r="D110" t="n">
         <v>0.08636105541139842</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>862834.8914489249</v>
+        <v>817003.201349323</v>
       </c>
       <c r="D112" t="n">
         <v>0.1037900777161122</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>855255.9871035216</v>
+        <v>806891.9183332629</v>
       </c>
       <c r="D113" t="n">
         <v>0.1034469554200769</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>862834.8914489249</v>
+        <v>817003.201349323</v>
       </c>
       <c r="D114" t="n">
         <v>0.1037900777161122</v>
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>685074.3664475355</v>
+        <v>579846.6289138112</v>
       </c>
       <c r="D115" t="n">
         <v>0.1305576346814633</v>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>878029.0863098851</v>
+        <v>837274.3114516048</v>
       </c>
       <c r="D116" t="n">
         <v>0.09497997239232064</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>930764.7303293668</v>
+        <v>907630.790094666</v>
       </c>
       <c r="D118" t="n">
         <v>0.08743539948016406</v>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>849161.4303208035</v>
+        <v>798760.955640102</v>
       </c>
       <c r="D119" t="n">
         <v>0.1031710344925523</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>822195.0150812489</v>
+        <v>762784.1120240318</v>
       </c>
       <c r="D120" t="n">
         <v>0.1112183725833893</v>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>838607.6035651874</v>
+        <v>784680.7239383755</v>
       </c>
       <c r="D121" t="n">
         <v>0.1026932275295258</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>842360.7555549535</v>
+        <v>789687.9360948174</v>
       </c>
       <c r="D122" t="n">
         <v>0.1028631452471018</v>
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>853828.8798741823</v>
+        <v>804987.9643535737</v>
       </c>
       <c r="D124" t="n">
         <v>0.1033823455125094</v>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>835383.4992484254</v>
+        <v>780379.3329015755</v>
       </c>
       <c r="D125" t="n">
         <v>0.1025472615659237</v>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>980226.8228560792</v>
+        <v>973619.9084831921</v>
       </c>
       <c r="D126" t="n">
         <v>0.06943032871931792</v>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>901684.9302964893</v>
+        <v>868834.4054482243</v>
       </c>
       <c r="D127" t="n">
         <v>0.08635823071002961</v>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>842360.7555549535</v>
+        <v>789687.9360948174</v>
       </c>
       <c r="D128" t="n">
         <v>0.1028631452471018</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>854567.193282</v>
+        <v>805972.9742548432</v>
       </c>
       <c r="D129" t="n">
         <v>0.1034157714247704</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>879061.1320544748</v>
+        <v>838651.2000008575</v>
       </c>
       <c r="D130" t="n">
         <v>0.09502244889736176</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>989086.3382337553</v>
+        <v>985439.6997467078</v>
       </c>
       <c r="D131" t="n">
         <v>0.06968557406682521</v>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>889487.652470984</v>
+        <v>852561.5878352143</v>
       </c>
       <c r="D132" t="n">
         <v>0.09545157924294473</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>849161.4303208035</v>
+        <v>798760.955640102</v>
       </c>
       <c r="D133" t="n">
         <v>0.1031710344925523</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>843683.655327333</v>
+        <v>791452.863238742</v>
       </c>
       <c r="D134" t="n">
         <v>0.1029230373352766</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>879136.8913191976</v>
+        <v>838752.2731021647</v>
       </c>
       <c r="D135" t="n">
         <v>0.09502556696534158</v>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>880911.785165945</v>
+        <v>841120.221447998</v>
       </c>
       <c r="D136" t="n">
         <v>0.09509861730039121</v>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>883365.4621117787</v>
+        <v>844393.7582151368</v>
       </c>
       <c r="D137" t="n">
         <v>0.09519960470497608</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>885067.8551568022</v>
+        <v>846664.9806898268</v>
       </c>
       <c r="D138" t="n">
         <v>0.09526967108249665</v>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>854567.193282</v>
+        <v>805972.9742548432</v>
       </c>
       <c r="D139" t="n">
         <v>0.1034157714247704</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>844872.2883215887</v>
+        <v>793038.6603486415</v>
       </c>
       <c r="D140" t="n">
         <v>0.1029768507182598</v>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>843801.8832264738</v>
+        <v>791610.59523985</v>
       </c>
       <c r="D141" t="n">
         <v>0.1029283899068833</v>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>820809.0278446977</v>
+        <v>760935.0176738813</v>
       </c>
       <c r="D142" t="n">
         <v>0.1111499199271202</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>770671.7998872004</v>
+        <v>694045.177346705</v>
       </c>
       <c r="D145" t="n">
         <v>0.117729828208685</v>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>855870.9405329752</v>
+        <v>807712.3493459165</v>
       </c>
       <c r="D146" t="n">
         <v>0.1034747964143753</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>835383.4992484254</v>
+        <v>780379.3329015755</v>
       </c>
       <c r="D148" t="n">
         <v>0.1025472615659237</v>
@@ -2813,7 +2813,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>890780.800665927</v>
+        <v>854286.8223526161</v>
       </c>
       <c r="D149" t="n">
         <v>0.09550480209290982</v>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>838143.1096647045</v>
+        <v>784061.026278533</v>
       </c>
       <c r="D150" t="n">
         <v>0.1026721983402968</v>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>970081.9807260679</v>
+        <v>960085.3175641226</v>
       </c>
       <c r="D151" t="n">
         <v>0.0691380527149886</v>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>854567.193282</v>
+        <v>805972.9742548432</v>
       </c>
       <c r="D154" t="n">
         <v>0.1034157714247704</v>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>844386.3247704579</v>
+        <v>792390.3192722758</v>
       </c>
       <c r="D155" t="n">
         <v>0.1029548495262861</v>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>991470.5533471758</v>
+        <v>988620.565038613</v>
       </c>
       <c r="D157" t="n">
         <v>0.05978936917148531</v>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>899230.5835554836</v>
+        <v>865559.975083774</v>
       </c>
       <c r="D158" t="n">
         <v>0.09585257470607758</v>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>938430.8347651331</v>
+        <v>917858.4098201635</v>
       </c>
       <c r="D159" t="n">
         <v>0.07797276973724367</v>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>988851.2095802993</v>
+        <v>985126.0063351106</v>
       </c>
       <c r="D160" t="n">
         <v>0.06967879993841053</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>859030.4458207856</v>
+        <v>811927.5565447201</v>
       </c>
       <c r="D161" t="n">
         <v>0.1036178377643228</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>854567.193282</v>
+        <v>805972.9742548432</v>
       </c>
       <c r="D162" t="n">
         <v>0.1034157714247704</v>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>834898.5132361943</v>
+        <v>779732.295994259</v>
       </c>
       <c r="D163" t="n">
         <v>0.1025253046303988</v>
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>905220.1725732088</v>
+        <v>873550.8965874655</v>
       </c>
       <c r="D164" t="n">
         <v>0.08648918252438308</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>863090.363999319</v>
+        <v>817344.0362698003</v>
       </c>
       <c r="D165" t="n">
         <v>0.1038016438111663</v>
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>922539.591309721</v>
+        <v>896657.3426563804</v>
       </c>
       <c r="D166" t="n">
         <v>0.08713072534650565</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>990956.5183635924</v>
+        <v>987934.7728762776</v>
       </c>
       <c r="D167" t="n">
         <v>0.05977667530998588</v>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>838143.1096647045</v>
+        <v>784061.026278533</v>
       </c>
       <c r="D168" t="n">
         <v>0.1026721983402968</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>982678.2211406352</v>
+        <v>976890.4052081262</v>
       </c>
       <c r="D170" t="n">
         <v>0.06950095425359905</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>936152.5672184266</v>
+        <v>914818.8929056867</v>
       </c>
       <c r="D171" t="n">
         <v>0.07789775535464288</v>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>835259.35180817</v>
+        <v>780213.7034323367</v>
       </c>
       <c r="D172" t="n">
         <v>0.102541640996933</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>847639.3207924763</v>
+        <v>796730.2557498609</v>
       </c>
       <c r="D174" t="n">
         <v>0.1031021235138178</v>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>897845.9630631347</v>
+        <v>863712.7041551643</v>
       </c>
       <c r="D175" t="n">
         <v>0.09579558707773686</v>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>980834.1505769871</v>
+        <v>974430.1657696986</v>
       </c>
       <c r="D176" t="n">
         <v>0.06944782601669432</v>
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>939708.5731454776</v>
+        <v>919563.0855615826</v>
       </c>
       <c r="D177" t="n">
         <v>0.07801484063267709</v>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>785900.5706610926</v>
+        <v>714362.41639128</v>
       </c>
       <c r="D178" t="n">
         <v>0.1185446413606406</v>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>850733.9464614654</v>
+        <v>800858.9047658485</v>
       </c>
       <c r="D179" t="n">
         <v>0.1032422275468707</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>858270.6356084617</v>
+        <v>810913.8670000093</v>
       </c>
       <c r="D180" t="n">
         <v>0.1035834386199713</v>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>991237.4255936551</v>
+        <v>988309.5410980382</v>
       </c>
       <c r="D181" t="n">
         <v>0.05978361218702048</v>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>938430.8347651331</v>
+        <v>917858.4098201635</v>
       </c>
       <c r="D182" t="n">
         <v>0.07797276973724367</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>878029.0863098851</v>
+        <v>837274.3114516048</v>
       </c>
       <c r="D183" t="n">
         <v>0.09497997239232064</v>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>887221.3824040134</v>
+        <v>849538.0771806877</v>
       </c>
       <c r="D184" t="n">
         <v>0.0953583050519228</v>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>886704.9522238437</v>
+        <v>848849.0895022909</v>
       </c>
       <c r="D185" t="n">
         <v>0.09533705003559589</v>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>983987.6265768387</v>
+        <v>978637.3290832442</v>
       </c>
       <c r="D186" t="n">
         <v>0.06953867862466723</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>962930.2744567401</v>
+        <v>950543.9745359891</v>
       </c>
       <c r="D187" t="n">
         <v>0.06893200987018645</v>
@@ -3437,7 +3437,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>841954.5519370052</v>
+        <v>789146.0055523487</v>
       </c>
       <c r="D188" t="n">
         <v>0.1028447550535202</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>981516.513459729</v>
+        <v>975340.5301063645</v>
       </c>
       <c r="D189" t="n">
         <v>0.06946748510003091</v>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>947135.2393841898</v>
+        <v>929471.2623617004</v>
       </c>
       <c r="D190" t="n">
         <v>0.07825937151908877</v>
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>959823.5811605476</v>
+        <v>946399.2256738463</v>
       </c>
       <c r="D191" t="n">
         <v>0.07867714866995813</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>990056.9664764602</v>
+        <v>986734.6490451936</v>
       </c>
       <c r="D192" t="n">
         <v>0.05975446128286422</v>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>840177.7301663168</v>
+        <v>786775.4850953352</v>
       </c>
       <c r="D193" t="n">
         <v>0.1027643124014139</v>
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>844964.2674910167</v>
+        <v>793161.3729956526</v>
       </c>
       <c r="D194" t="n">
         <v>0.1029810149222612</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>854567.193282</v>
+        <v>805972.9742548432</v>
       </c>
       <c r="D197" t="n">
         <v>0.1034157714247704</v>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>844032.4194836408</v>
+        <v>791918.1617739352</v>
       </c>
       <c r="D199" t="n">
         <v>0.1029388270527125</v>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>970766.6788406257</v>
+        <v>960998.7974157393</v>
       </c>
       <c r="D200" t="n">
         <v>0.06915777907706798</v>
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>947135.2393841898</v>
+        <v>929471.2623617004</v>
       </c>
       <c r="D202" t="n">
         <v>0.07825937151908877</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>947135.2393841898</v>
+        <v>929471.2623617004</v>
       </c>
       <c r="D203" t="n">
         <v>0.07825937151908877</v>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>852069.3279573877</v>
+        <v>802640.4842164281</v>
       </c>
       <c r="D205" t="n">
         <v>0.1033026847243309</v>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>887845.4052221472</v>
+        <v>850370.6079839636</v>
       </c>
       <c r="D206" t="n">
         <v>0.09538398832082749</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>980084.7108757213</v>
+        <v>973430.3118887658</v>
       </c>
       <c r="D207" t="n">
         <v>0.06942623442970217</v>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>989828.2257681749</v>
+        <v>986429.4780160631</v>
       </c>
       <c r="D208" t="n">
         <v>0.05974881263449788</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>848824.1250927083</v>
+        <v>798310.944864318</v>
       </c>
       <c r="D210" t="n">
         <v>0.1031557635590434</v>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>961310.4359294848</v>
+        <v>948382.8909488437</v>
       </c>
       <c r="D211" t="n">
         <v>0.07872610494494439</v>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>861600.3412802441</v>
+        <v>815356.1445210327</v>
       </c>
       <c r="D213" t="n">
         <v>0.1037341855093837</v>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>963384.0041152191</v>
+        <v>951149.3112417419</v>
       </c>
       <c r="D214" t="n">
         <v>0.06894508196040988</v>
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>956640.5380032138</v>
+        <v>942152.6157749294</v>
       </c>
       <c r="D218" t="n">
         <v>0.07857234358787538</v>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>851795.0196806031</v>
+        <v>802274.5198904766</v>
       </c>
       <c r="D220" t="n">
         <v>0.1032902658730745</v>
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>953196.8902162627</v>
+        <v>937558.3240680272</v>
       </c>
       <c r="D221" t="n">
         <v>0.07845895782113077</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>908038.3900670364</v>
+        <v>877310.7797291739</v>
       </c>
       <c r="D224" t="n">
         <v>0.08659357443451883</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>701454.8952760801</v>
+        <v>601700.4689135994</v>
       </c>
       <c r="D225" t="n">
         <v>0.1315689090639353</v>
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>799590.4779760719</v>
+        <v>732626.6035371886</v>
       </c>
       <c r="D226" t="n">
         <v>0.1101019549369812</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>955814.2234662125</v>
+        <v>941050.2004701403</v>
       </c>
       <c r="D227" t="n">
         <v>0.0785451363027096</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>862018.1305444104</v>
+        <v>815913.5318818614</v>
       </c>
       <c r="D228" t="n">
         <v>0.1037531002238393</v>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>904962.120406274</v>
+        <v>873206.6201097753</v>
       </c>
       <c r="D230" t="n">
         <v>0.08647962380200626</v>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>754057.4944410622</v>
+        <v>671879.4477339466</v>
       </c>
       <c r="D231" t="n">
         <v>0.125828642398119</v>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>856936.7747286056</v>
+        <v>809134.3162568393</v>
       </c>
       <c r="D232" t="n">
         <v>0.1035230502858758</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>739370.2259098585</v>
+        <v>652284.6458887506</v>
       </c>
       <c r="D234" t="n">
         <v>0.124982353001833</v>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>821648.6794517789</v>
+        <v>762055.2264332433</v>
       </c>
       <c r="D235" t="n">
         <v>0.1111913895606995</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>712516.4177207717</v>
+        <v>616458.035301756</v>
       </c>
       <c r="D236" t="n">
         <v>0.1322518073022366</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>833885.1674487034</v>
+        <v>778380.3557158904</v>
       </c>
       <c r="D237" t="n">
         <v>0.1024794270843268</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>898761.6454735218</v>
+        <v>864934.3482850138</v>
       </c>
       <c r="D239" t="n">
         <v>0.09583327434957029</v>
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>967047.5528981605</v>
+        <v>956036.9806065004</v>
       </c>
       <c r="D240" t="n">
         <v>0.0690506299212575</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>890898.4945391874</v>
+        <v>854443.8418910028</v>
       </c>
       <c r="D243" t="n">
         <v>0.09550964608788491</v>
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>839675.0398384589</v>
+        <v>786104.8282374622</v>
       </c>
       <c r="D244" t="n">
         <v>0.1027415539324284</v>
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>729760.3125260001</v>
+        <v>639463.7222359868</v>
       </c>
       <c r="D245" t="n">
         <v>0.1244286239147186</v>
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>821906.9669521526</v>
+        <v>762399.8168775565</v>
       </c>
       <c r="D248" t="n">
         <v>0.1112041461467743</v>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>764561.4576615103</v>
+        <v>685893.1547385285</v>
       </c>
       <c r="D250" t="n">
         <v>0.1174028952419758</v>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>818154.4485524141</v>
+        <v>757393.4500158686</v>
       </c>
       <c r="D251" t="n">
         <v>0.1110188126564026</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>788444.9052885827</v>
+        <v>717756.9027620859</v>
       </c>
       <c r="D252" t="n">
         <v>0.1186807756125927</v>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>771282.8341097694</v>
+        <v>694860.3796075226</v>
       </c>
       <c r="D253" t="n">
         <v>0.1177625215053559</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>754935.0528343632</v>
+        <v>673050.2292708802</v>
       </c>
       <c r="D257" t="n">
         <v>0.1258792078495026</v>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>833885.1674487034</v>
+        <v>778380.3557158904</v>
       </c>
       <c r="D258" t="n">
         <v>0.1024794270843268</v>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>852144.2635550746</v>
+        <v>802740.458434555</v>
       </c>
       <c r="D259" t="n">
         <v>0.1033060773089528</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>937762.2660424196</v>
+        <v>916966.4487578573</v>
       </c>
       <c r="D264" t="n">
         <v>0.07795075640082361</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>749442.4789881065</v>
+        <v>665722.3931991933</v>
       </c>
       <c r="D266" t="n">
         <v>0.1255627223849297</v>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>879484.5331160281</v>
+        <v>839216.0742580793</v>
       </c>
       <c r="D269" t="n">
         <v>0.09503987506031991</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>725596.5941983816</v>
+        <v>633908.7590789124</v>
       </c>
       <c r="D270" t="n">
         <v>0.1330593299120665</v>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>867152.7260251017</v>
+        <v>822763.7764175032</v>
       </c>
       <c r="D281" t="n">
         <v>0.1039855604991317</v>
@@ -4989,7 +4989,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>684685.4869911976</v>
+        <v>579327.8111450465</v>
       </c>
       <c r="D285" t="n">
         <v>0.1305336266756058</v>

--- a/Qi/Project/GS-1/code/output/Q2-1亿各个公司可借的钱.xlsx
+++ b/Qi/Project/GS-1/code/output/Q2-1亿各个公司可借的钱.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>868936.1427096954</v>
+        <v>148432.4235268199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08636105541139842</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>876370.0149704599</v>
+        <v>857029.2558318509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08656745441257954</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>777606.1623262841</v>
+        <v>42814.71875108275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1117670783400536</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="7">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>837274.3114516048</v>
+        <v>111817.3938023242</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09497997239232064</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="19">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>879300.941698138</v>
+        <v>860418.6987348679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08664883062243463</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="23">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>914395.4606120983</v>
+        <v>901003.428112237</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07788730517029764</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>990353.3906047972</v>
+        <v>988844.2684547598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0598214433901012</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="30">
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="31">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>882569.8897223263</v>
+        <v>864199.0432164556</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08673959188163281</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>843154.604408239</v>
+        <v>118617.6037977863</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0951613772660494</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>987781.9375469234</v>
+        <v>985870.5355275106</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05977384636178613</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="39">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>882892.2126876896</v>
+        <v>864571.7906062531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08674854107201101</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43">
@@ -1117,10 +1117,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>843154.604408239</v>
+        <v>118617.6037977863</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0951613772660494</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="46">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>659244.9961039289</v>
+        <v>105937.0509961547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1252829669415951</v>
+        <v>0.1051216647028923</v>
       </c>
     </row>
     <row r="47">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="50">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="51">
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>865449.9780849918</v>
+        <v>144400.880931652</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09584918133914472</v>
+        <v>0.04150818660855293</v>
       </c>
     </row>
     <row r="53">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="55">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>989808.9800278983</v>
+        <v>988214.6899160773</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05981136647053063</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>868936.1427096954</v>
+        <v>148432.4235268199</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08636105541139842</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59">
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>889534.8045291763</v>
+        <v>872253.5540437859</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08693297043442727</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61">
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62">
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>879394.8297940356</v>
+        <v>860527.2747484928</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08665143739432098</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>843154.604408239</v>
+        <v>118617.6037977863</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0951613772660494</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>928132.5871731511</v>
+        <v>916889.6001173252</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07822633340954782</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>955751.0083344716</v>
+        <v>948828.6659130532</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06904445442371071</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>906402.474174079</v>
+        <v>891760.0134269041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08740129569545389</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="68">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>812608.9727972483</v>
+        <v>83293.39275411438</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1036409613490105</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71">
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>837274.3114516048</v>
+        <v>111817.3938023242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09497997239232064</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="72">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>988745.230920288</v>
+        <v>986984.5271728972</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05979167670942843</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="73">
@@ -1597,10 +1597,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="74">
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="75">
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="76">
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>927801.8474871651</v>
+        <v>916507.1192893931</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07821817085146905</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="77">
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>892346.7258311219</v>
+        <v>875505.3742311406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08701104249805212</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="79">
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>990083.306855235</v>
+        <v>988531.9326192957</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05981644419953228</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="80">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="81">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>834780.4866412524</v>
+        <v>108933.4333385589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09490303881466389</v>
+        <v>0.05096961185336113</v>
       </c>
     </row>
     <row r="82">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>843291.9165032167</v>
+        <v>118776.3970905102</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09516561329364777</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="84">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="85">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="86">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87">
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="88">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="89">
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>843291.9165032167</v>
+        <v>118776.3970905102</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09516561329364777</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>868936.1427096954</v>
+        <v>148432.4235268199</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08636105541139842</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="92">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="95">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>928132.5871731511</v>
+        <v>916889.6001173252</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07822633340954782</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="96">
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99">
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>848834.3572222915</v>
+        <v>125185.9010140498</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09533659555017948</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="100">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>872964.6605242447</v>
+        <v>153091.1654145838</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08647290587425233</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="101">
@@ -2045,10 +2045,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>933081.5826723167</v>
+        <v>922612.8198461918</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07834847316145899</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="102">
@@ -2061,10 +2061,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="103">
@@ -2077,10 +2077,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104">
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>933478.0621388899</v>
+        <v>923071.3248308023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07835825815796854</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="105">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>995814.3815138622</v>
+        <v>995159.580504486</v>
       </c>
       <c r="D105" t="n">
-        <v>0.05992252512602136</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="106">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>879300.941698138</v>
+        <v>860418.6987348679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08664883062243463</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="107">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>868936.1427096954</v>
+        <v>148432.4235268199</v>
       </c>
       <c r="D110" t="n">
-        <v>0.08636105541139842</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="111">
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>817003.201349323</v>
+        <v>88375.05741649325</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1037900777161122</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="113">
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>806891.9183332629</v>
+        <v>76681.95839237334</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1034469554200769</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="114">
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>817003.201349323</v>
+        <v>88375.05741649325</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1037900777161122</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="115">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>579846.6289138112</v>
+        <v>14117.54911564628</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1305576346814633</v>
+        <v>0.1296157687902451</v>
       </c>
     </row>
     <row r="116">
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>837274.3114516048</v>
+        <v>111817.3938023242</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09497997239232064</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="117">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>907630.790094666</v>
+        <v>893180.4879274707</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08743539948016406</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="119">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>798760.955640102</v>
+        <v>67278.98235248376</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1031710344925523</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="120">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>762784.1120240318</v>
+        <v>725673.8967951115</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1112183725833893</v>
+        <v>0.07318022847175598</v>
       </c>
     </row>
     <row r="121">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>784680.7239383755</v>
+        <v>250996.0296046143</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1026932275295258</v>
+        <v>0.06642520427703857</v>
       </c>
     </row>
     <row r="122">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>789687.9360948174</v>
+        <v>56786.57344430857</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1028631452471018</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="123">
@@ -2413,10 +2413,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>804987.9643535737</v>
+        <v>74480.14855414498</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1033823455125094</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="125">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>780379.3329015755</v>
+        <v>46021.72602168858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1025472615659237</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="126">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>973619.9084831921</v>
+        <v>969492.9889825619</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06943032871931792</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="127">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>868834.4054482243</v>
+        <v>148314.7704188083</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08635823071002961</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="128">
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>789687.9360948174</v>
+        <v>56786.57344430857</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1028631452471018</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="129">
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>805972.9742548432</v>
+        <v>75619.2540758664</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1034157714247704</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="130">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>838651.2000008575</v>
+        <v>113409.6837348694</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09502244889736176</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="131">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>985439.6997467078</v>
+        <v>983161.8764490874</v>
       </c>
       <c r="D131" t="n">
-        <v>0.06968557406682521</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="132">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>852561.5878352143</v>
+        <v>129496.2221249724</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09545157924294473</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="133">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>798760.955640102</v>
+        <v>67278.98235248376</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1031710344925523</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="134">
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>791452.863238742</v>
+        <v>58827.60699380853</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1029230373352766</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="135">
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>838752.2731021647</v>
+        <v>113526.5687810483</v>
       </c>
       <c r="D135" t="n">
-        <v>0.09502556696534158</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="136">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>841120.221447998</v>
+        <v>116264.960580373</v>
       </c>
       <c r="D136" t="n">
-        <v>0.09509861730039121</v>
+        <v>0.04901382699608803</v>
       </c>
     </row>
     <row r="137">
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>844393.7582151368</v>
+        <v>320050.6116709867</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09519960470497608</v>
+        <v>0.04800395295023918</v>
       </c>
     </row>
     <row r="138">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>846664.9806898268</v>
+        <v>122677.1457379467</v>
       </c>
       <c r="D138" t="n">
-        <v>0.09526967108249665</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="139">
@@ -2653,10 +2653,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>805972.9742548432</v>
+        <v>75619.2540758664</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1034157714247704</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="140">
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>793038.6603486415</v>
+        <v>460661.4872846446</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1029768507182598</v>
+        <v>0.06384681165218353</v>
       </c>
     </row>
     <row r="141">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>791610.59523985</v>
+        <v>59010.01469669837</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1029283899068833</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="142">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>760935.0176738813</v>
+        <v>23535.52886426542</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1111499199271202</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="143">
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>694045.177346705</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.117729828208685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2765,10 +2765,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>807712.3493459165</v>
+        <v>277630.7381919477</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1034747964143753</v>
+        <v>0.05932003259658813</v>
       </c>
     </row>
     <row r="147">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>780379.3329015755</v>
+        <v>46021.72602168858</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1025472615659237</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="149">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>854286.8223526161</v>
+        <v>831491.3535063972</v>
       </c>
       <c r="D149" t="n">
-        <v>0.09550480209290982</v>
+        <v>0.04495197907090187</v>
       </c>
     </row>
     <row r="150">
@@ -2829,10 +2829,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>784061.026278533</v>
+        <v>50279.3860204081</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1026721983402968</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="151">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>960085.3175641226</v>
+        <v>953841.0374333605</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0691380527149886</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="152">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>805972.9742548432</v>
+        <v>75619.2540758664</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1034157714247704</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="155">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>792390.3192722758</v>
+        <v>59911.71928830745</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1029548495262861</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="156">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>988620.565038613</v>
+        <v>986840.3584757062</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05978936917148531</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="158">
@@ -2957,10 +2957,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>865559.975083774</v>
+        <v>144528.0859359105</v>
       </c>
       <c r="D158" t="n">
-        <v>0.09585257470607758</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="159">
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>917858.4098201635</v>
+        <v>905008.1234551612</v>
       </c>
       <c r="D159" t="n">
-        <v>0.07797276973724367</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="160">
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>985126.0063351106</v>
+        <v>982799.1086263299</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06967879993841053</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="161">
@@ -3005,10 +3005,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>811927.5565447201</v>
+        <v>82505.37527850797</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1036178377643228</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="162">
@@ -3021,10 +3021,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>805972.9742548432</v>
+        <v>75619.2540758664</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1034157714247704</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="163">
@@ -3037,10 +3037,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>779732.295994259</v>
+        <v>745273.4662194956</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1025253046303988</v>
+        <v>0.06795177608728409</v>
       </c>
     </row>
     <row r="164">
@@ -3053,10 +3053,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>873550.8965874655</v>
+        <v>553769.1126471817</v>
       </c>
       <c r="D164" t="n">
-        <v>0.08648918252438308</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="165">
@@ -3069,10 +3069,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>817344.0362698003</v>
+        <v>288769.2127842827</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1038016438111663</v>
+        <v>0.05634869262576103</v>
       </c>
     </row>
     <row r="166">
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>896657.3426563804</v>
+        <v>880490.3468911607</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08713072534650565</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="167">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>987934.7728762776</v>
+        <v>986047.2805199793</v>
       </c>
       <c r="D167" t="n">
-        <v>0.05977667530998588</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="168">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>784061.026278533</v>
+        <v>50279.3860204081</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1026721983402968</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="169">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>976890.4052081262</v>
+        <v>973275.1244446959</v>
       </c>
       <c r="D170" t="n">
-        <v>0.06950095425359905</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="171">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>914818.8929056867</v>
+        <v>901493.1024424952</v>
       </c>
       <c r="D171" t="n">
-        <v>0.07789775535464288</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="172">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>780213.7034323367</v>
+        <v>45830.18536536972</v>
       </c>
       <c r="D172" t="n">
-        <v>0.102541640996933</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="173">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>796730.2557498609</v>
+        <v>64930.59838705187</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1031021235138178</v>
+        <v>0.06270796805620193</v>
       </c>
     </row>
     <row r="175">
@@ -3229,10 +3229,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>863712.7041551643</v>
+        <v>342391.8266839143</v>
       </c>
       <c r="D175" t="n">
-        <v>0.09579558707773686</v>
+        <v>0.04204412922263145</v>
       </c>
     </row>
     <row r="176">
@@ -3245,10 +3245,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>974430.1657696986</v>
+        <v>970430.0034713349</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06944782601669432</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="177">
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>919563.0855615826</v>
+        <v>906979.4798316732</v>
       </c>
       <c r="D177" t="n">
-        <v>0.07801484063267709</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="178">
@@ -3277,10 +3277,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>714362.41639128</v>
+        <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1185446413606406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>800858.9047658485</v>
+        <v>69705.13606966837</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1032422275468707</v>
+        <v>0.0614342950284481</v>
       </c>
     </row>
     <row r="180">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>810913.8670000093</v>
+        <v>81333.10345037378</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1035834386199713</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="181">
@@ -3325,10 +3325,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>988309.5410980382</v>
+        <v>986480.6777378378</v>
       </c>
       <c r="D181" t="n">
-        <v>0.05978361218702048</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="182">
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>917858.4098201635</v>
+        <v>905008.1234551612</v>
       </c>
       <c r="D182" t="n">
-        <v>0.07797276973724367</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="183">
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>837274.3114516048</v>
+        <v>111817.3938023242</v>
       </c>
       <c r="D183" t="n">
-        <v>0.09497997239232064</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="184">
@@ -3373,10 +3373,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>849538.0771806877</v>
+        <v>525999.7114024749</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0953583050519228</v>
+        <v>0.04641694948077202</v>
       </c>
     </row>
     <row r="185">
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>848849.0895022909</v>
+        <v>125202.9380219755</v>
       </c>
       <c r="D185" t="n">
-        <v>0.09533705003559589</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="186">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>978637.3290832442</v>
+        <v>975295.3382817439</v>
       </c>
       <c r="D186" t="n">
-        <v>0.06953867862466723</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="187">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>950543.9745359891</v>
+        <v>942807.0401974157</v>
       </c>
       <c r="D187" t="n">
-        <v>0.06893200987018645</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="188">
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>789146.0055523487</v>
+        <v>256159.8629183332</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1028447550535202</v>
+        <v>0.06504768133163452</v>
       </c>
     </row>
     <row r="189">
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>975340.5301063645</v>
+        <v>971482.7858254393</v>
       </c>
       <c r="D189" t="n">
-        <v>0.06946748510003091</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="190">
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>929471.2623617004</v>
+        <v>918437.6985649681</v>
       </c>
       <c r="D190" t="n">
-        <v>0.07825937151908877</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="191">
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>946399.2256738463</v>
+        <v>938013.8839977363</v>
       </c>
       <c r="D191" t="n">
-        <v>0.07867714866995813</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="192">
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>986734.6490451936</v>
+        <v>984659.4084986164</v>
       </c>
       <c r="D192" t="n">
-        <v>0.05975446128286422</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="193">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>786775.4850953352</v>
+        <v>53418.4966250018</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1027643124014139</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="194">
@@ -3533,10 +3533,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>793161.3729956526</v>
+        <v>60803.39718180939</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1029810149222612</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="195">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>805972.9742548432</v>
+        <v>75619.2540758664</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1034157714247704</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="198">
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>791918.1617739352</v>
+        <v>459365.697149049</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1029388270527125</v>
+        <v>0.06419248133897781</v>
       </c>
     </row>
     <row r="200">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>960998.7974157393</v>
+        <v>954897.4226956983</v>
       </c>
       <c r="D200" t="n">
-        <v>0.06915777907706798</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="201">
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>929471.2623617004</v>
+        <v>918437.6985649681</v>
       </c>
       <c r="D202" t="n">
-        <v>0.07825937151908877</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="203">
@@ -3677,10 +3677,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>929471.2623617004</v>
+        <v>918437.6985649681</v>
       </c>
       <c r="D203" t="n">
-        <v>0.07825937151908877</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="204">
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>802640.4842164281</v>
+        <v>471765.4270240285</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1033026847243309</v>
+        <v>0.06088468432426454</v>
       </c>
     </row>
     <row r="206">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>850370.6079839636</v>
+        <v>126962.4838921652</v>
       </c>
       <c r="D206" t="n">
-        <v>0.09538398832082749</v>
+        <v>0.04616011679172516</v>
       </c>
     </row>
     <row r="207">
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>973430.3118887658</v>
+        <v>969273.7317676523</v>
       </c>
       <c r="D207" t="n">
-        <v>0.06942623442970217</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="208">
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>986429.4780160631</v>
+        <v>984306.4963056487</v>
       </c>
       <c r="D208" t="n">
-        <v>0.05974881263449788</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="209">
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>798310.944864318</v>
+        <v>766758.5715841562</v>
       </c>
       <c r="D210" t="n">
-        <v>0.1031557635590434</v>
+        <v>0.06222033128142357</v>
       </c>
     </row>
     <row r="211">
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>948382.8909488437</v>
+        <v>940307.8752206513</v>
       </c>
       <c r="D211" t="n">
-        <v>0.07872610494494439</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="212">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>815356.1445210327</v>
+        <v>86470.33389515954</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1037341855093837</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="214">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>951149.3112417419</v>
+        <v>943507.0761900846</v>
       </c>
       <c r="D214" t="n">
-        <v>0.06894508196040988</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="215">
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>942152.6157749294</v>
+        <v>933102.9315512491</v>
       </c>
       <c r="D218" t="n">
-        <v>0.07857234358787538</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="219">
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>802274.5198904766</v>
+        <v>71342.21098944126</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1032902658730745</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="221">
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>937558.3240680272</v>
+        <v>927789.9057177152</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07845895782113077</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="222">
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>877310.7797291739</v>
+        <v>858117.1944707528</v>
       </c>
       <c r="D224" t="n">
-        <v>0.08659357443451883</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="225">
@@ -4029,10 +4029,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>601700.4689135994</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1315689090639353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>732626.6035371886</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1101019549369812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>941050.2004701403</v>
+        <v>931828.0536446443</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0785451363027096</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="228">
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>815913.5318818614</v>
+        <v>87114.91931469634</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1037531002238393</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="229">
@@ -4109,10 +4109,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>873206.6201097753</v>
+        <v>153370.9773226228</v>
       </c>
       <c r="D230" t="n">
-        <v>0.08647962380200626</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="231">
@@ -4125,10 +4125,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>671879.4477339466</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>0.125828642398119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -4141,10 +4141,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>809134.3162568393</v>
+        <v>79275.1585757935</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1035230502858758</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="233">
@@ -4173,10 +4173,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>652284.6458887506</v>
+        <v>597887.818848329</v>
       </c>
       <c r="D234" t="n">
-        <v>0.124982353001833</v>
+        <v>0.1072689071297646</v>
       </c>
     </row>
     <row r="235">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>762055.2264332433</v>
+        <v>24830.98384560668</v>
       </c>
       <c r="D235" t="n">
-        <v>0.1111913895606995</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="236">
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>616458.035301756</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1322518073022366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4221,10 +4221,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>778380.3557158904</v>
+        <v>43710.02748233936</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1024794270843268</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="238">
@@ -4253,10 +4253,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>864934.3482850138</v>
+        <v>843804.5856542522</v>
       </c>
       <c r="D239" t="n">
-        <v>0.09583327434957029</v>
+        <v>0.04166725650429726</v>
       </c>
     </row>
     <row r="240">
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>956036.9806065004</v>
+        <v>949159.3758822702</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0690506299212575</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="241">
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>854443.8418910028</v>
+        <v>331672.9372884119</v>
       </c>
       <c r="D243" t="n">
-        <v>0.09550964608788491</v>
+        <v>0.04490353912115097</v>
       </c>
     </row>
     <row r="244">
@@ -4333,10 +4333,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>786104.8282374622</v>
+        <v>52642.92175108538</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1027415539324284</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="245">
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>639463.7222359868</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0.1244286239147186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>762399.8168775565</v>
+        <v>25229.48225394113</v>
       </c>
       <c r="D248" t="n">
-        <v>0.1112041461467743</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="249">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>685893.1547385285</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0.1174028952419758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>757393.4500158686</v>
+        <v>19439.91594748845</v>
       </c>
       <c r="D251" t="n">
-        <v>0.1110188126564026</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="252">
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>717756.9027620859</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1186807756125927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -4477,10 +4477,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>694860.3796075226</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0.1177625215053559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>673050.2292708802</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1258792078495026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -4557,10 +4557,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>778380.3557158904</v>
+        <v>43710.02748233936</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1024794270843268</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="259">
@@ -4573,10 +4573,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>802740.458434555</v>
+        <v>71881.04127699329</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1033060773089528</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="260">
@@ -4653,10 +4653,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>916966.4487578573</v>
+        <v>903976.6233962034</v>
       </c>
       <c r="D264" t="n">
-        <v>0.07795075640082361</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="265">
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>665722.3931991933</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>0.1255627223849297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -4733,10 +4733,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>839216.0742580793</v>
+        <v>114062.9273059751</v>
       </c>
       <c r="D269" t="n">
-        <v>0.09503987506031991</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="270">
@@ -4749,10 +4749,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>633908.7590789124</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1330593299120665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -4925,10 +4925,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>822763.7764175032</v>
+        <v>95036.82077541805</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1039855604991317</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="282">
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>579327.8111450465</v>
+        <v>213517.5671414496</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1305336266756058</v>
+        <v>0.1297758221626282</v>
       </c>
     </row>
     <row r="286">
